--- a/BvnErp.Chains_SIT/WebApi/Content/templates/提货委托书模板.xlsx
+++ b/BvnErp.Chains_SIT/WebApi/Content/templates/提货委托书模板.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12975"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
-  <si>
-    <t>深圳市芯达通供应链管理有限公司
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+  <si>
+    <t>深圳市华芯通供应链管理有限公司
 香港货物提货委托书</t>
   </si>
   <si>
@@ -26,10 +39,10 @@
     <t>&amp;=$LotNumber</t>
   </si>
   <si>
-    <t>TO：香港畅运         林先生 00852-31019258</t>
-  </si>
-  <si>
-    <t>FM：深圳芯达通关务部 朱小姐 0755-28503672</t>
+    <t>TO：香港速达         马小姐 00852-23688398</t>
+  </si>
+  <si>
+    <t>FM：深圳华芯通关务部 李先生 0755-28014789</t>
   </si>
   <si>
     <t>货物合计</t>
@@ -188,10 +201,10 @@
     <t>车辆检查人员</t>
   </si>
   <si>
-    <t>委托人：朱小钗</t>
-  </si>
-  <si>
-    <t>深圳市芯达通供应链管理有限公司</t>
+    <t>委托人：李文忠</t>
+  </si>
+  <si>
+    <t>深圳市华芯通供应链管理有限公司</t>
   </si>
   <si>
     <t>日期：</t>
@@ -200,47 +213,18 @@
     <t>&amp;=$CurrentDateTime</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF002060"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深圳市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF002060"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>芯达通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF002060"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供应链管理有限公司</t>
-    </r>
-  </si>
-  <si>
-    <t>SHENZHEN XINDATONG SUPPLY CHAIN MANAGEMENT CO.,LTD</t>
+    <t>SHENZHEN HUAXINTONG SUPPLY CHAIN MANAGEMENT CO.,LTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -301,6 +285,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -309,20 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -331,94 +379,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,16 +394,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,37 +438,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,145 +534,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +731,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -757,6 +774,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,56 +811,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,148 +832,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,52 +1077,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1155,48 +1139,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="U36)_PFC~1$AFRLR8{_63$E"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="logo_hxt"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4352925" y="7819390"/>
-          <a:ext cx="2095500" cy="1609725"/>
+          <a:off x="95250" y="95250"/>
+          <a:ext cx="1382395" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,46 +1175,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114935</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1375410</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 1" descr="C:\Documents and Settings\Administrator\桌面\芯达通logo.png芯达通logo"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="HXT"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
-          <a:lum/>
-        </a:blip>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114935" y="20320"/>
-          <a:ext cx="808990" cy="477520"/>
+          <a:off x="4762500" y="8095615"/>
+          <a:ext cx="1527810" cy="1527810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1541,8 +1505,8 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1983,14 +1947,14 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="F36" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:6">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="E37" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="31"/>
     </row>
